--- a/resources/testData/Registration.xlsx
+++ b/resources/testData/Registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="526" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="526"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Element Identifier</t>
   </si>
   <si>
-    <t>Assert</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>#Password</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
     <tableColumn id="3" name="Element Identifier"/>
     <tableColumn id="4" name="Element Identifier Value"/>
     <tableColumn id="5" name="Input Value"/>
-    <tableColumn id="6" name="Assert"/>
+    <tableColumn id="6" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,13 +541,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,13 +566,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>3000</v>
@@ -591,16 +591,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,16 +608,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -625,16 +625,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -642,16 +642,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -659,16 +659,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,16 +676,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -693,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>3000</v>
@@ -718,13 +718,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>3000</v>
@@ -751,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -776,72 +776,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
